--- a/Conceito_Se.xlsx
+++ b/Conceito_Se.xlsx
@@ -12,7 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Conceito_Se" sheetId="1" r:id="rId1"/>
+    <sheet name="Conceito Se" sheetId="6" r:id="rId1"/>
+    <sheet name="Condição 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Condição 2" sheetId="7" r:id="rId3"/>
+    <sheet name="Atividade Prática 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Atividade Prática 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Atividade Prática 3" sheetId="9" r:id="rId6"/>
+    <sheet name="ConceitoSeAninhado" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>=Se(condição, valor se verdadeiro, valor se falso)</t>
   </si>
@@ -90,13 +96,195 @@
   </si>
   <si>
     <t>=se(a2&lt;=50;"comprar";"não comprar")</t>
+  </si>
+  <si>
+    <t>Relatório de Notas</t>
+  </si>
+  <si>
+    <t>Matéria: Matemática</t>
+  </si>
+  <si>
+    <t>Sala 5</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>1o. Bimestre</t>
+  </si>
+  <si>
+    <t>2o. Bimestre</t>
+  </si>
+  <si>
+    <t>3o. Bimestre</t>
+  </si>
+  <si>
+    <t>4o. Bimestre</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Pedro Toledo</t>
+  </si>
+  <si>
+    <t>Marcelo Alves</t>
+  </si>
+  <si>
+    <t>Joana Souza</t>
+  </si>
+  <si>
+    <t>Amanda Tomas</t>
+  </si>
+  <si>
+    <t>Adriana Henrique</t>
+  </si>
+  <si>
+    <t>José Costa</t>
+  </si>
+  <si>
+    <t>Marta de Almeida</t>
+  </si>
+  <si>
+    <t>Relatório de Vendas</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor </t>
+  </si>
+  <si>
+    <t>Pagamento</t>
+  </si>
+  <si>
+    <t>Valor a pagar</t>
+  </si>
+  <si>
+    <t>Jose Costa</t>
+  </si>
+  <si>
+    <t>Valor Total Recebido</t>
+  </si>
+  <si>
+    <t>Cartão</t>
+  </si>
+  <si>
+    <t>Dinheiro</t>
+  </si>
+  <si>
+    <t>Operadores Lógicos:</t>
+  </si>
+  <si>
+    <t>&gt; maior</t>
+  </si>
+  <si>
+    <t>&gt;= maior ou igual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; menor </t>
+  </si>
+  <si>
+    <t>&lt;= menor ou igual</t>
+  </si>
+  <si>
+    <t>= igual</t>
+  </si>
+  <si>
+    <t>&lt;&gt; diferente</t>
+  </si>
+  <si>
+    <t>Função Se() - utilizada para retornar um valor, dependendo de uma condição</t>
+  </si>
+  <si>
+    <t>Sintaxe:</t>
+  </si>
+  <si>
+    <t>=Se(condicao;resp se verdadeiro;resp se falso)</t>
+  </si>
+  <si>
+    <t>Pergunta</t>
+  </si>
+  <si>
+    <t>=Se(condição, valor se verdadeiro, valor se falso;Se(condicao;valor se verdadeiro;valor se falso))</t>
+  </si>
+  <si>
+    <t>Entre 50,01 e 69,99 --&gt; Analisar</t>
+  </si>
+  <si>
+    <t>Maior ou iguall a 70 --&gt; Não comprar</t>
+  </si>
+  <si>
+    <t>=se(a2&lt;=50;"comprar";se(a2&gt; 70;"não comprar";"Analisar"))</t>
+  </si>
+  <si>
+    <t>Obs: um se a menos do que o número de respostas</t>
+  </si>
+  <si>
+    <t>Média igual ou super a 7,0</t>
+  </si>
+  <si>
+    <t>Exibir Aprovado</t>
+  </si>
+  <si>
+    <t>Média Inferior a 5,0</t>
+  </si>
+  <si>
+    <t>Exibir Reprovado</t>
+  </si>
+  <si>
+    <t>Média entre 5,0 e 6,9</t>
+  </si>
+  <si>
+    <t>Exibir Recuperação</t>
+  </si>
+  <si>
+    <t>Função Se() - utilizada para retornar um valor, dependendo de uma condição.</t>
+  </si>
+  <si>
+    <t>=Se(condicao;valor se verdadeiro;Se(condicao;valor se verdadeiro;resp se falso))</t>
+  </si>
+  <si>
+    <t>Resposta 
+caso a 
+condição seja
+satisfatória</t>
+  </si>
+  <si>
+    <t>Resposta caso a
+condição não seja
+satisfatória.
+"Caso Contrário"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resposta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caso a </t>
+  </si>
+  <si>
+    <t>condição seja</t>
+  </si>
+  <si>
+    <t>satisfatória</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +308,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +347,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF33CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -164,25 +399,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFA7CCA4"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF33CCCC"/>
     </mruColors>
   </colors>
@@ -195,6 +747,972 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493815</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584924</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Seta para Baixo 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159298" y="1696507"/>
+          <a:ext cx="91109" cy="265043"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>795131</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector reto 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3967370" y="1697935"/>
+          <a:ext cx="505239" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>814551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>873672</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector reto 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4480034" y="1696506"/>
+          <a:ext cx="991914" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396709</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Seta para Baixo 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5028686" y="1696507"/>
+          <a:ext cx="91109" cy="265043"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>932792</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector reto 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5531068" y="1696506"/>
+          <a:ext cx="663465" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266471</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Seta para Baixo 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797540" y="1689938"/>
+          <a:ext cx="91109" cy="265043"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340702</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388327</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector reto 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1556971" y="1680063"/>
+          <a:ext cx="655760" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472587</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector reto 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2296991" y="1680063"/>
+          <a:ext cx="1388451" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307730</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>359020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector reto 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3956538" y="1680063"/>
+          <a:ext cx="659424" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>432288</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>593480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector reto 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4689230" y="1680063"/>
+          <a:ext cx="1377462" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373673</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector reto 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6147288" y="1680063"/>
+          <a:ext cx="915866" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>199793</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>274134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408878</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>641195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Retângulo 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417134" y="2364988"/>
+          <a:ext cx="817756" cy="367061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4645</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487865</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Retângulo 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2439328" y="2100147"/>
+          <a:ext cx="1091891" cy="892097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27878</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594731</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>864219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Retângulo 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4897244" y="2132670"/>
+          <a:ext cx="1175524" cy="822403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="66CCFF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298259</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390293</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector reto 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3950283" y="1772454"/>
+          <a:ext cx="3135388" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector de Seta Reta 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1858537" y="1663390"/>
+          <a:ext cx="0" cy="696951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534330</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534330</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4646</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector de Seta Reta 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2969013" y="1663390"/>
+          <a:ext cx="0" cy="432110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4647</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6505</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector de Seta Reta 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5491047" y="1788749"/>
+          <a:ext cx="1858" cy="356187"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="66CCFF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,10 +1978,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J34"/>
+  <dimension ref="B4:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="G12" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="H13" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I12:J15"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,98 +2122,85 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f>IF(B12&lt;=50,"comprar","não comprar")</f>
-        <v>comprar</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f>IF(B12&gt;50,"não comprar","comprar")</f>
-        <v>comprar</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f t="shared" ref="C13:D16" si="0">IF(B13&lt;=50,"comprar","não comprar")</f>
+        <f>IF(B13&lt;=50,"comprar","não comprar")</f>
         <v>comprar</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f t="shared" ref="D13:D16" si="1">IF(B13&gt;50,"não comprar","comprar")</f>
+        <f>IF(B13&gt;50,"não comprar","comprar")</f>
         <v>comprar</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>não comprar</v>
+        <f t="shared" ref="C14:C17" si="0">IF(B14&lt;=50,"comprar","não comprar")</f>
+        <v>comprar</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>não comprar</v>
+        <f t="shared" ref="D14:D17" si="1">IF(B14&gt;50,"não comprar","comprar")</f>
+        <v>comprar</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -588,10 +2213,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -602,79 +2227,79 @@
         <v>não comprar</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>não comprar</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>não comprar</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f>IF(B23&lt;=50,"Comprar","Não comprar")</f>
-        <v>Comprar</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f>IF(B23&gt;50,"não comprar","comprar")</f>
-        <v>comprar</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B24" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" ref="C24:C34" si="2">IF(B24&lt;=50,"Comprar","Não comprar")</f>
+        <f>IF(B24&lt;=50,"Comprar","Não comprar")</f>
         <v>Comprar</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" ref="D24:D34" si="3">IF(B24&gt;50,"não comprar","comprar")</f>
+        <f>IF(B24&gt;50,"não comprar","comprar")</f>
         <v>comprar</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Não comprar</v>
+        <f t="shared" ref="C25:C35" si="2">IF(B25&lt;=50,"Comprar","Não comprar")</f>
+        <v>Comprar</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>não comprar</v>
+        <f t="shared" ref="D25:D35" si="3">IF(B25&gt;50,"não comprar","comprar")</f>
+        <v>comprar</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -687,10 +2312,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -702,27 +2327,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="4">
-        <v>45</v>
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Comprar</v>
+        <v>Não comprar</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>comprar</v>
+        <v>não comprar</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -735,26 +2360,26 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Não comprar</v>
+        <v>Comprar</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>não comprar</v>
+        <v>comprar</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="4">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -767,10 +2392,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -783,32 +2408,48 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="4">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Comprar</v>
+        <v>Não comprar</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>comprar</v>
+        <v>não comprar</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Comprar</v>
       </c>
       <c r="D34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>comprar</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Comprar</v>
+      </c>
+      <c r="D35" s="3" t="str">
         <f t="shared" si="3"/>
         <v>comprar</v>
       </c>
@@ -817,4 +2458,1103 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="33">
+        <v>45</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f>IF(C14&lt;=50,"Comprar",IF(C14&gt;=70,"Não comprar","Analisar"))</f>
+        <v>Comprar</v>
+      </c>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="33">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" ref="D15:D18" si="0">IF(C15&lt;=50,"Comprar",IF(C15&gt;=70,"Não comprar","Analisar"))</f>
+        <v>Comprar</v>
+      </c>
+      <c r="E15" s="44"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="33">
+        <v>235</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E16" s="44"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="33">
+        <v>80</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="33">
+        <v>65</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Analisar</v>
+      </c>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="33">
+        <v>45</v>
+      </c>
+      <c r="D25" s="14" t="str">
+        <f>IF(C25&lt;=50,"Comprar",IF(C25&gt;=70,"Não comprar","Analisar"))</f>
+        <v>Comprar</v>
+      </c>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="33">
+        <v>30</v>
+      </c>
+      <c r="D26" s="14" t="str">
+        <f t="shared" ref="D26:D36" si="1">IF(C26&lt;=50,"Comprar",IF(C26&gt;=70,"Não comprar","Analisar"))</f>
+        <v>Comprar</v>
+      </c>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="33">
+        <v>235</v>
+      </c>
+      <c r="D27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="33">
+        <v>80</v>
+      </c>
+      <c r="D28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="33">
+        <v>65</v>
+      </c>
+      <c r="D29" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Analisar</v>
+      </c>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="47">
+        <v>45</v>
+      </c>
+      <c r="D30" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Comprar</v>
+      </c>
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="47">
+        <v>30</v>
+      </c>
+      <c r="D31" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Comprar</v>
+      </c>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="47">
+        <v>235</v>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="47">
+        <v>80</v>
+      </c>
+      <c r="D33" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="47">
+        <v>65</v>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Analisar</v>
+      </c>
+      <c r="E34" s="44"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="47">
+        <v>45</v>
+      </c>
+      <c r="D35" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Comprar</v>
+      </c>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="47">
+        <v>30</v>
+      </c>
+      <c r="D36" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Comprar</v>
+      </c>
+      <c r="E36" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="22">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="24">
+        <v>8</v>
+      </c>
+      <c r="F11" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="G11" s="24">
+        <f>AVERAGE(C11:F11)</f>
+        <v>7.75</v>
+      </c>
+      <c r="H11" s="32" t="str">
+        <f>IF(G11&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="22">
+        <v>5.2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>6</v>
+      </c>
+      <c r="E12" s="24">
+        <v>7</v>
+      </c>
+      <c r="F12" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" ref="G12:G17" si="0">AVERAGE(C12:F12)</f>
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H12" s="32" t="str">
+        <f t="shared" ref="H12:H17" si="1">IF(G12&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="24">
+        <v>6</v>
+      </c>
+      <c r="D13" s="26">
+        <v>8</v>
+      </c>
+      <c r="E13" s="24">
+        <v>5</v>
+      </c>
+      <c r="F13" s="23">
+        <v>7</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H13" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26">
+        <v>9</v>
+      </c>
+      <c r="E14" s="24">
+        <v>6</v>
+      </c>
+      <c r="F14" s="23">
+        <v>6</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="H14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="22">
+        <v>9</v>
+      </c>
+      <c r="D15" s="27">
+        <v>10</v>
+      </c>
+      <c r="E15" s="24">
+        <v>10</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="H15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="22">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23">
+        <v>7</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
+      <c r="F16" s="25">
+        <v>10</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="H16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="28">
+        <v>5</v>
+      </c>
+      <c r="D17" s="29">
+        <v>5</v>
+      </c>
+      <c r="E17" s="30">
+        <v>9</v>
+      </c>
+      <c r="F17" s="31">
+        <v>7</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:F23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="21">
+        <f>IF(D8="dinheiro",C8-C8*10%,C8)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="34">
+        <v>290</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" ref="E9:E14" si="0">IF(D9="dinheiro",C9-C9*10%,C9)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="34">
+        <v>430</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="34">
+        <v>600</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="34">
+        <v>200</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="34">
+        <v>300</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="34">
+        <v>390</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="36">
+        <f>SUM(E8:E14)</f>
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <f>IF(E23&lt;300,E23,IF(E23&lt;600,E23-E23*2%,E23-E23*10%))</f>
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:H30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="22">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="24">
+        <v>8</v>
+      </c>
+      <c r="F11" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="G11" s="24">
+        <f>AVERAGE(C11:F11)</f>
+        <v>7.75</v>
+      </c>
+      <c r="H11" s="32" t="str">
+        <f>IF(G11&gt;=7,"Aprovado",IF(G11&lt;5,"Reprovado","Recuperação"))</f>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="22">
+        <v>5.2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>6</v>
+      </c>
+      <c r="E12" s="24">
+        <v>7</v>
+      </c>
+      <c r="F12" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" ref="G12:G17" si="0">AVERAGE(C12:F12)</f>
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H12" s="32" t="str">
+        <f t="shared" ref="H12:H17" si="1">IF(G12&gt;=7,"Aprovado",IF(G12&lt;5,"Reprovado","Recuperação"))</f>
+        <v>Recuperação</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="24">
+        <v>6</v>
+      </c>
+      <c r="D13" s="26">
+        <v>8</v>
+      </c>
+      <c r="E13" s="24">
+        <v>5</v>
+      </c>
+      <c r="F13" s="23">
+        <v>7</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H13" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Recuperação</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26">
+        <v>9</v>
+      </c>
+      <c r="E14" s="24">
+        <v>6</v>
+      </c>
+      <c r="F14" s="23">
+        <v>6</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="H14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="22">
+        <v>9</v>
+      </c>
+      <c r="D15" s="27">
+        <v>10</v>
+      </c>
+      <c r="E15" s="24">
+        <v>10</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="H15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="22">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23">
+        <v>7</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
+      <c r="F16" s="25">
+        <v>10</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="H16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="28">
+        <v>5</v>
+      </c>
+      <c r="D17" s="29">
+        <v>5</v>
+      </c>
+      <c r="E17" s="30">
+        <v>9</v>
+      </c>
+      <c r="F17" s="31">
+        <v>7</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Recuperação</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:J11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="51"/>
+    </row>
+    <row r="11" spans="3:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>